--- a/Resultats/Flottants - Résultats.xlsx
+++ b/Resultats/Flottants - Résultats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Frederick the Great\Documents\GitHub\DockerCpuOverheadTesting\Resultats\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D92BBE-B1AA-4944-95A1-DF21DA3B17E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8F48682-3438-4D4D-9885-05185439C4BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="71">
   <si>
     <t>flottantLimite</t>
   </si>
@@ -274,6 +274,9 @@
   <si>
     <t>6 Gb/s</t>
   </si>
+  <si>
+    <t>Écart-type (% de moyenne)</t>
+  </si>
 </sst>
 </file>
 
@@ -445,9 +448,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -470,6 +470,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,7 +525,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Surcharge computationnelle induite par Docker dans un environnement Windows en utilisant le</a:t>
+              <a:t>Surcharge computationnelle induite par différentes configuration de Docker dans un environnement Windows en utilisant le</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-CA" baseline="0"/>
@@ -598,7 +601,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$3,Résultats!$F$3,Résultats!$I$3,Résultats!$L$3,Résultats!$O$3)</c:f>
+                <c:f>(Résultats!$D$3,Résultats!$H$3,Résultats!$L$3,Résultats!$P$3,Résultats!$T$3)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -622,7 +625,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$3,Résultats!$F$3,Résultats!$I$3,Résultats!$L$3,Résultats!$O$3)</c:f>
+                <c:f>(Résultats!$D$3,Résultats!$H$3,Résultats!$L$3,Résultats!$P$3,Résultats!$T$3)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -660,7 +663,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -683,7 +686,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$3,Résultats!$G$3,Résultats!$J$3,Résultats!$M$3,Résultats!$P$3)</c:f>
+              <c:f>(Résultats!$E$3,Résultats!$I$3,Résultats!$M$3,Résultats!$Q$3,Résultats!$U$3)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -741,48 +744,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$4,Résultats!$F$4,Résultats!$I$4,Résultats!$L$4,Résultats!$O$4)</c:f>
+                <c:f>(Résultats!$D$4,Résultats!$H$4,Résultats!$L$4,Résultats!$P$4,Résultats!$T$4)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>9.7414466748821961E-3</c:v>
+                    <c:v>1.0094972026454358E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.6259794891359014E-2</c:v>
+                    <c:v>2.7313531154282665E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.45349132897149E-2</c:v>
+                    <c:v>2.5503475816704202E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.542613736131546E-2</c:v>
+                    <c:v>1.6133367768659052E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1041787915970741E-2</c:v>
+                    <c:v>1.1373727825742915E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$4,Résultats!$F$4,Résultats!$I$4,Résultats!$L$4,Résultats!$O$4)</c:f>
+                <c:f>(Résultats!$T$4,Résultats!$P$4,Résultats!$L$4,Résultats!$H$4,Résultats!$D$4)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>9.7414466748821961E-3</c:v>
+                    <c:v>1.1373727825742915E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>2.6259794891359014E-2</c:v>
+                    <c:v>1.6133367768659052E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.45349132897149E-2</c:v>
+                    <c:v>2.5503475816704202E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.542613736131546E-2</c:v>
+                    <c:v>2.7313531154282665E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1041787915970741E-2</c:v>
+                    <c:v>1.0094972026454358E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -803,7 +806,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -826,7 +829,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$4,Résultats!$G$4,Résultats!$J$4,Résultats!$M$4,Résultats!$P$4)</c:f>
+              <c:f>(Résultats!$E$4,Résultats!$I$4,Résultats!$M$4,Résultats!$Q$4,Résultats!$U$4)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -884,48 +887,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$5,Résultats!$F$5,Résultats!$I$5,Résultats!$L$5,Résultats!$O$5)</c:f>
+                <c:f>(Résultats!$D$5,Résultats!$H$5,Résultats!$L$5,Résultats!$P$5,Résultats!$T$5)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>9.5812600768054711E-3</c:v>
+                    <c:v>9.7356602876080053E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4970610703573018E-2</c:v>
+                    <c:v>3.5566132384516044E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6788191655568458E-2</c:v>
+                    <c:v>1.7150030167936411E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.1556438935731758E-2</c:v>
+                    <c:v>1.1736804290672797E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.7132771185909853E-3</c:v>
+                    <c:v>6.7728298675455651E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$5,Résultats!$F$5,Résultats!$I$5,Résultats!$L$5,Résultats!$O$5)</c:f>
+                <c:f>(Résultats!$T$5,Résultats!$P$5,Résultats!$L$5,Résultats!$H$5,Résultats!$D$5)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>9.5812600768054711E-3</c:v>
+                    <c:v>6.7728298675455651E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.4970610703573018E-2</c:v>
+                    <c:v>1.1736804290672797E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.6788191655568458E-2</c:v>
+                    <c:v>1.7150030167936411E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.1556438935731758E-2</c:v>
+                    <c:v>3.5566132384516044E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.7132771185909853E-3</c:v>
+                    <c:v>9.7356602876080053E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -946,7 +949,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -969,7 +972,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$5,Résultats!$G$5,Résultats!$J$5,Résultats!$M$5,Résultats!$P$5)</c:f>
+              <c:f>(Résultats!$E$5,Résultats!$I$5,Résultats!$M$5,Résultats!$Q$5,Résultats!$U$5)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1027,48 +1030,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$6,Résultats!$F$6,Résultats!$I$6,Résultats!$L$6,Résultats!$O$6)</c:f>
+                <c:f>(Résultats!$T$6,Résultats!$P$6,Résultats!$L$6,Résultats!$H$6,Résultats!$D$6)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.4609776764857743E-2</c:v>
+                    <c:v>4.9670611694018884E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.3014220159446675E-2</c:v>
+                    <c:v>1.3436345494072735E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7784364386757356E-2</c:v>
+                    <c:v>1.8640369902004926E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2801907161554741E-2</c:v>
+                    <c:v>3.4660107263832229E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.7980259160979111E-3</c:v>
+                    <c:v>1.5244709035412116E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$6,Résultats!$F$6,Résultats!$I$6,Résultats!$L$6,Résultats!$O$6)</c:f>
+                <c:f>(Résultats!$D$6,Résultats!$H$6,Résultats!$L$6,Résultats!$P$6,Résultats!$T$6)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.4609776764857743E-2</c:v>
+                    <c:v>1.5244709035412116E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.3014220159446675E-2</c:v>
+                    <c:v>3.4660107263832229E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7784364386757356E-2</c:v>
+                    <c:v>1.8640369902004926E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.2801907161554741E-2</c:v>
+                    <c:v>1.3436345494072735E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>4.7980259160979111E-3</c:v>
+                    <c:v>4.9670611694018884E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1089,7 +1092,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1112,7 +1115,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$6,Résultats!$G$6,Résultats!$J$6,Résultats!$M$6,Résultats!$P$6)</c:f>
+              <c:f>(Résultats!$E$6,Résultats!$I$6,Résultats!$M$6,Résultats!$Q$6,Résultats!$U$6)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1170,48 +1173,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$7,Résultats!$F$7,Résultats!$I$7,Résultats!$L$7,Résultats!$O$7)</c:f>
+                <c:f>(Résultats!$D$7,Résultats!$H$7,Résultats!$L$7,Résultats!$P$7,Résultats!$T$7)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.2434762996823728E-2</c:v>
+                    <c:v>2.3211327251963749E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0521632710278343E-2</c:v>
+                    <c:v>3.1602229617604095E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7634536333042908E-2</c:v>
+                    <c:v>1.8189867845488452E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.0333975481329204E-2</c:v>
+                    <c:v>1.0591581051110506E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.5526637438342999E-3</c:v>
+                    <c:v>5.6269227843986167E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$7,Résultats!$F$7,Résultats!$I$7,Résultats!$L$7,Résultats!$O$7)</c:f>
+                <c:f>(Résultats!$T$7,Résultats!$P$7,Résultats!$L$7,Résultats!$H$7,Résultats!$D$7)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>2.2434762996823728E-2</c:v>
+                    <c:v>5.6269227843986167E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.0521632710278343E-2</c:v>
+                    <c:v>1.0591581051110506E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>1.7634536333042908E-2</c:v>
+                    <c:v>1.8189867845488452E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.0333975481329204E-2</c:v>
+                    <c:v>3.1602229617604095E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>5.5526637438342999E-3</c:v>
+                    <c:v>2.3211327251963749E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1232,7 +1235,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1255,7 +1258,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$7,Résultats!$G$7,Résultats!$J$7,Résultats!$M$7,Résultats!$P$7)</c:f>
+              <c:f>(Résultats!$E$7,Résultats!$I$7,Résultats!$M$7,Résultats!$Q$7,Résultats!$U$7)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1745,7 +1748,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$8,Résultats!$F$8,Résultats!$I$8,Résultats!$L$8,Résultats!$O$8)</c:f>
+                <c:f>(Résultats!$D$8,Résultats!$H$8,Résultats!$L$8,Résultats!$P$8,Résultats!$T$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
@@ -1769,24 +1772,24 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$8,Résultats!$F$8,Résultats!$I$8,Résultats!$L$8,Résultats!$O$8)</c:f>
+                <c:f>(Résultats!$T$8,Résultats!$P$8,Résultats!$L$8,Résultats!$H$8,Résultats!$D$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>4.5820229251037417E-3</c:v>
+                    <c:v>6.5817619504084024E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.6808834281159122E-2</c:v>
+                    <c:v>1.7323736386289066E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>9.8745319560217485E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7323736386289066E-3</c:v>
+                    <c:v>1.6808834281159122E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>6.5817619504084024E-3</c:v>
+                    <c:v>4.5820229251037417E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1807,7 +1810,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1830,7 +1833,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$8,Résultats!$G$8,Résultats!$J$8,Résultats!$M$8,Résultats!$P$8)</c:f>
+              <c:f>(Résultats!$E$8,Résultats!$I$8,Résultats!$M$8,Résultats!$Q$8,Résultats!$U$8)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1888,48 +1891,48 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>(Résultats!$C$9,Résultats!$F$9,Résultats!$I$9,Résultats!$L$9,Résultats!$O$9)</c:f>
+                <c:f>(Résultats!$D$9,Résultats!$H$9,Résultats!$L$9,Résultats!$P$9,Résultats!$T$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.2482489309164404E-2</c:v>
+                    <c:v>1.5676146708881969E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2312144535262476E-2</c:v>
+                    <c:v>1.4041451918380845E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.8042579453281284E-3</c:v>
+                    <c:v>6.2363826683844957E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.8764455332092828E-3</c:v>
+                    <c:v>4.084260566577797E-3</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5862204342227122E-3</c:v>
+                    <c:v>3.7799748647707973E-3</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>(Résultats!$C$9,Résultats!$F$9,Résultats!$I$9,Résultats!$L$9,Résultats!$O$9)</c:f>
+                <c:f>(Résultats!$T$9,Résultats!$P$9,Résultats!$L$9,Résultats!$H$9,Résultats!$D$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="5"/>
                   <c:pt idx="0">
-                    <c:v>1.2482489309164404E-2</c:v>
+                    <c:v>3.7799748647707973E-3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.2312144535262476E-2</c:v>
+                    <c:v>4.084260566577797E-3</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.8042579453281284E-3</c:v>
+                    <c:v>6.2363826683844957E-3</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>3.8764455332092828E-3</c:v>
+                    <c:v>1.4041451918380845E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>3.5862204342227122E-3</c:v>
+                    <c:v>1.5676146708881969E-2</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1950,7 +1953,7 @@
           </c:errBars>
           <c:cat>
             <c:strRef>
-              <c:f>(Résultats!$D$1,Résultats!$G$1,Résultats!$J$1,Résultats!$M$1,Résultats!$P$1)</c:f>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
               <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
@@ -1973,7 +1976,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Résultats!$D$9,Résultats!$G$9,Résultats!$J$9,Résultats!$M$9,Résultats!$P$9)</c:f>
+              <c:f>(Résultats!$E$9,Résultats!$I$9,Résultats!$M$9,Résultats!$Q$9,Résultats!$U$9)</c:f>
               <c:numCache>
                 <c:formatCode>0.000%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2334,6 +2337,587 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-CA"/>
+              <a:t>Résultats moyens du</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-CA" baseline="0"/>
+              <a:t> test les flottants dans les environnement natifs Linux et Windows</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-CA"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Résultats!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Windows (Natif)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250m</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Résultats!$B$3,Résultats!$F$3,Résultats!$J$3,Résultats!$N$3,Résultats!$R$3)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4595499999999992</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.0244499999999981</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.363900000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>124.9029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-04FC-4285-B61B-FFB7884EB9F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Résultats!$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Linux (Natif)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>(Résultats!$E$1,Résultats!$I$1,Résultats!$M$1,Résultats!$Q$1,Résultats!$U$1)</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25m</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50m</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100m</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>250m</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>500m</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>(Résultats!$B$8,Résultats!$F$8,Résultats!$J$8,Résultats!$N$8,Résultats!$R$8)</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.4523999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.9883000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18.423200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>54.982600000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>123.13549999999995</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-04FC-4285-B61B-FFB7884EB9F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="524712576"/>
+        <c:axId val="524715072"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="524712576"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Précision (flottantLimite) utilisée par le programme y-cruncher</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524715072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="524715072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-CA"/>
+                  <a:t>Temps de calcul (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="524712576"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:overlay val="1"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2375,6 +2959,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3420,6 +4044,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3430,7 +4557,7 @@
       <xdr:rowOff>195261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>447675</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>200024</xdr:rowOff>
@@ -3460,13 +4587,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>519111</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>581024</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>52387</xdr:rowOff>
@@ -3489,6 +4616,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>52386</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{381D8A4E-F71A-4655-A18E-594CAB4D829F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3760,10 +4923,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q58" sqref="Q58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3771,56 +4934,66 @@
     <col min="1" max="1" width="29" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1"/>
       <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="1"/>
-      <c r="R1" s="1"/>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
@@ -3828,31 +5001,31 @@
         <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="L2" s="1" t="s">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="M2" s="1" t="s">
         <v>17</v>
@@ -3864,12 +5037,27 @@
         <v>7</v>
       </c>
       <c r="P2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="R2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="V2" s="1"/>
+      <c r="W2" s="1"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -3877,64 +5065,84 @@
         <f>'Windows (Natif)'!B22</f>
         <v>3.4595499999999992</v>
       </c>
-      <c r="C3" s="5">
-        <f>'Windows (Natif)'!B24</f>
+      <c r="C3" s="4">
+        <f>'Windows (Natif)'!B23</f>
+        <v>3.6053397898117727E-2</v>
+      </c>
+      <c r="D3" s="5">
+        <f>C3/$B$3</f>
         <v>1.0421412582017238E-2</v>
       </c>
-      <c r="D3" s="5">
+      <c r="E3" s="5">
         <f>B3/$B$3</f>
         <v>1</v>
       </c>
-      <c r="E3" s="4">
+      <c r="F3" s="4">
         <f>'Windows (Natif)'!D22</f>
         <v>8.0244499999999981</v>
       </c>
-      <c r="F3" s="5">
-        <f>'Windows (Natif)'!D24</f>
+      <c r="G3" s="4">
+        <f>'Windows (Natif)'!D23</f>
+        <v>0.12348946311325511</v>
+      </c>
+      <c r="H3" s="5">
+        <f>G3/$F$3</f>
         <v>1.5389149800080396E-2</v>
       </c>
-      <c r="G3" s="5">
-        <f>E3/$E$3</f>
+      <c r="I3" s="5">
+        <f>F3/$F$3</f>
         <v>1</v>
       </c>
-      <c r="H3" s="4">
+      <c r="J3" s="4">
         <f>'Windows (Natif)'!F22</f>
         <v>18.363900000000001</v>
       </c>
-      <c r="I3" s="5">
-        <f>'Windows (Natif)'!F24</f>
+      <c r="K3" s="4">
+        <f>'Windows (Natif)'!F23</f>
+        <v>9.8673147309691414E-2</v>
+      </c>
+      <c r="L3" s="5">
+        <f>K3/$J$3</f>
         <v>5.3732130598452077E-3</v>
       </c>
-      <c r="J3" s="5">
-        <f>H3/$H$3</f>
+      <c r="M3" s="5">
+        <f>J3/$J$3</f>
         <v>1</v>
       </c>
-      <c r="K3" s="4">
+      <c r="N3" s="4">
         <f>'Windows (Natif)'!H22</f>
         <v>54.878</v>
       </c>
-      <c r="L3" s="5">
-        <f>'Windows (Natif)'!H24</f>
+      <c r="O3" s="4">
+        <f>'Windows (Natif)'!H23</f>
+        <v>0.53773497189600827</v>
+      </c>
+      <c r="P3" s="5">
+        <f>O3/$N$3</f>
         <v>9.7987348645360295E-3</v>
       </c>
-      <c r="M3" s="5">
-        <f>K3/$K$3</f>
+      <c r="Q3" s="5">
+        <f>N3/$N$3</f>
         <v>1</v>
       </c>
-      <c r="N3" s="4">
+      <c r="R3" s="4">
         <f>'Windows (Natif)'!J22</f>
         <v>124.9029</v>
       </c>
-      <c r="O3" s="5">
-        <f>'Windows (Natif)'!J24</f>
+      <c r="S3" s="4">
+        <f>'Windows (Natif)'!J23</f>
+        <v>0.31522054184332671</v>
+      </c>
+      <c r="T3" s="5">
+        <f>S3/$R$3</f>
         <v>2.5237247641434002E-3</v>
       </c>
-      <c r="P3" s="5">
-        <f>N3/$N$3</f>
+      <c r="U3" s="5">
+        <f>R3/$R$3</f>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -3942,64 +5150,84 @@
         <f>'Windows (WSL2)'!B22</f>
         <v>3.5851000000000006</v>
       </c>
-      <c r="C4" s="5">
-        <f>'Windows (WSL2)'!B24</f>
-        <v>9.7414466748821961E-3</v>
+      <c r="C4" s="4">
+        <f>'Windows (WSL2)'!B23</f>
+        <v>3.4924060474120167E-2</v>
       </c>
       <c r="D4" s="5">
-        <f t="shared" ref="D4:D7" si="0">B4/$B$3</f>
+        <f t="shared" ref="D4:D7" si="0">C4/$B$3</f>
+        <v>1.0094972026454358E-2</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" ref="E4:E7" si="1">B4/$B$3</f>
         <v>1.036290847075487</v>
       </c>
-      <c r="E4" s="4">
+      <c r="F4" s="4">
         <f>'Windows (WSL2)'!D22</f>
         <v>8.3464500000000008</v>
       </c>
-      <c r="F4" s="5">
-        <f>'Windows (WSL2)'!D24</f>
-        <v>2.6259794891359014E-2</v>
-      </c>
-      <c r="G4" s="5">
-        <f t="shared" ref="G4:G7" si="1">E4/$E$3</f>
+      <c r="G4" s="4">
+        <f>'Windows (WSL2)'!D23</f>
+        <v>0.21917606507098347</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" ref="H4:H7" si="2">G4/$F$3</f>
+        <v>2.7313531154282665E-2</v>
+      </c>
+      <c r="I4" s="5">
+        <f t="shared" ref="I4:I7" si="3">F4/$F$3</f>
         <v>1.0401273607536969</v>
       </c>
-      <c r="H4" s="4">
+      <c r="J4" s="4">
         <f>'Windows (WSL2)'!F22</f>
         <v>19.088850000000001</v>
       </c>
-      <c r="I4" s="5">
-        <f>'Windows (WSL2)'!F24</f>
-        <v>2.45349132897149E-2</v>
-      </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J7" si="2">H4/$H$3</f>
+      <c r="K4" s="4">
+        <f>'Windows (WSL2)'!F23</f>
+        <v>0.4683432795503743</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L7" si="4">K4/$J$3</f>
+        <v>2.5503475816704202E-2</v>
+      </c>
+      <c r="M4" s="5">
+        <f t="shared" ref="M4:M7" si="5">J4/$J$3</f>
         <v>1.0394769084998285</v>
       </c>
-      <c r="K4" s="4">
+      <c r="N4" s="4">
         <f>'Windows (WSL2)'!H22</f>
         <v>57.393949999999997</v>
       </c>
-      <c r="L4" s="5">
-        <f>'Windows (WSL2)'!H24</f>
-        <v>1.542613736131546E-2</v>
-      </c>
-      <c r="M4" s="5">
-        <f t="shared" ref="M4:M7" si="3">K4/$K$3</f>
+      <c r="O4" s="4">
+        <f>'Windows (WSL2)'!H23</f>
+        <v>0.88536695640847141</v>
+      </c>
+      <c r="P4" s="5">
+        <f t="shared" ref="P4:P7" si="6">O4/$N$3</f>
+        <v>1.6133367768659052E-2</v>
+      </c>
+      <c r="Q4" s="5">
+        <f t="shared" ref="Q4:Q7" si="7">N4/$N$3</f>
         <v>1.045846240752214</v>
       </c>
-      <c r="N4" s="4">
+      <c r="R4" s="4">
         <f>'Windows (WSL2)'!J22</f>
         <v>128.65775000000002</v>
       </c>
-      <c r="O4" s="5">
-        <f>'Windows (WSL2)'!J24</f>
-        <v>1.1041787915970741E-2</v>
-      </c>
-      <c r="P4" s="5">
-        <f t="shared" ref="P4:P7" si="4">N4/$N$3</f>
+      <c r="S4" s="4">
+        <f>'Windows (WSL2)'!J23</f>
+        <v>1.4206115892459847</v>
+      </c>
+      <c r="T4" s="5">
+        <f t="shared" ref="T4:T7" si="8">S4/$R$3</f>
+        <v>1.1373727825742915E-2</v>
+      </c>
+      <c r="U4" s="5">
+        <f t="shared" ref="U4:U7" si="9">R4/$R$3</f>
         <v>1.0300621522798912</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
@@ -4007,64 +5235,84 @@
         <f>'Windows (WSL2 - Process)'!B22</f>
         <v>3.5152999999999999</v>
       </c>
-      <c r="C5" s="5">
-        <f>'Windows (WSL2 - Process)'!B24</f>
-        <v>9.5812600768054711E-3</v>
+      <c r="C5" s="4">
+        <f>'Windows (WSL2 - Process)'!B23</f>
+        <v>3.3681003547994269E-2</v>
       </c>
       <c r="D5" s="5">
         <f t="shared" si="0"/>
+        <v>9.7356602876080053E-3</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
         <v>1.0161148126201387</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <f>'Windows (WSL2 - Process)'!D22</f>
         <v>8.1610999999999994</v>
       </c>
-      <c r="F5" s="5">
-        <f>'Windows (WSL2 - Process)'!D24</f>
-        <v>3.4970610703573018E-2</v>
-      </c>
-      <c r="G5" s="5">
-        <f t="shared" si="1"/>
+      <c r="G5" s="4">
+        <f>'Windows (WSL2 - Process)'!D23</f>
+        <v>0.28539865101292972</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="2"/>
+        <v>3.5566132384516044E-2</v>
+      </c>
+      <c r="I5" s="5">
+        <f t="shared" si="3"/>
         <v>1.0170292044937661</v>
       </c>
-      <c r="H5" s="4">
+      <c r="J5" s="4">
         <f>'Windows (WSL2 - Process)'!F22</f>
         <v>18.759699999999995</v>
       </c>
-      <c r="I5" s="5">
-        <f>'Windows (WSL2 - Process)'!F24</f>
-        <v>1.6788191655568458E-2</v>
-      </c>
-      <c r="J5" s="5">
-        <f t="shared" si="2"/>
+      <c r="K5" s="4">
+        <f>'Windows (WSL2 - Process)'!F23</f>
+        <v>0.31494143900096749</v>
+      </c>
+      <c r="L5" s="5">
+        <f t="shared" si="4"/>
+        <v>1.7150030167936411E-2</v>
+      </c>
+      <c r="M5" s="5">
+        <f t="shared" si="5"/>
         <v>1.0215531559200384</v>
       </c>
-      <c r="K5" s="4">
+      <c r="N5" s="4">
         <f>'Windows (WSL2 - Process)'!H22</f>
         <v>55.734500000000004</v>
       </c>
-      <c r="L5" s="5">
-        <f>'Windows (WSL2 - Process)'!H24</f>
-        <v>1.1556438935731758E-2</v>
-      </c>
-      <c r="M5" s="5">
-        <f t="shared" si="3"/>
+      <c r="O5" s="4">
+        <f>'Windows (WSL2 - Process)'!H23</f>
+        <v>0.64409234586354169</v>
+      </c>
+      <c r="P5" s="5">
+        <f t="shared" si="6"/>
+        <v>1.1736804290672797E-2</v>
+      </c>
+      <c r="Q5" s="5">
+        <f t="shared" si="7"/>
         <v>1.015607347206531</v>
       </c>
-      <c r="N5" s="4">
+      <c r="R5" s="4">
         <f>'Windows (WSL2 - Process)'!J22</f>
         <v>126.01090000000003</v>
       </c>
-      <c r="O5" s="5">
-        <f>'Windows (WSL2 - Process)'!J24</f>
-        <v>6.7132771185909853E-3</v>
-      </c>
-      <c r="P5" s="5">
-        <f t="shared" si="4"/>
+      <c r="S5" s="4">
+        <f>'Windows (WSL2 - Process)'!J23</f>
+        <v>0.84594609166305701</v>
+      </c>
+      <c r="T5" s="5">
+        <f t="shared" si="8"/>
+        <v>6.7728298675455651E-3</v>
+      </c>
+      <c r="U5" s="5">
+        <f t="shared" si="9"/>
         <v>1.0088708909080577</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>13</v>
       </c>
@@ -4072,64 +5320,84 @@
         <f>'Windows (HyperV)'!B22</f>
         <v>3.6099000000000006</v>
       </c>
-      <c r="C6" s="5">
-        <f>'Windows (HyperV)'!B24</f>
-        <v>1.4609776764857743E-2</v>
+      <c r="C6" s="4">
+        <f>'Windows (HyperV)'!B23</f>
+        <v>5.2739833143459973E-2</v>
       </c>
       <c r="D6" s="5">
         <f t="shared" si="0"/>
+        <v>1.5244709035412116E-2</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
         <v>1.0434594094607683</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <f>'Windows (HyperV)'!D22</f>
         <v>8.4244999999999983</v>
       </c>
-      <c r="F6" s="5">
-        <f>'Windows (HyperV)'!D24</f>
-        <v>3.3014220159446675E-2</v>
-      </c>
-      <c r="G6" s="5">
-        <f t="shared" si="1"/>
+      <c r="G6" s="4">
+        <f>'Windows (HyperV)'!D23</f>
+        <v>0.27812829773325848</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="2"/>
+        <v>3.4660107263832229E-2</v>
+      </c>
+      <c r="I6" s="5">
+        <f t="shared" si="3"/>
         <v>1.0498538840668208</v>
       </c>
-      <c r="H6" s="4">
+      <c r="J6" s="4">
         <f>'Windows (HyperV)'!F22</f>
         <v>19.247800000000002</v>
       </c>
-      <c r="I6" s="5">
-        <f>'Windows (HyperV)'!F24</f>
-        <v>1.7784364386757356E-2</v>
-      </c>
-      <c r="J6" s="5">
-        <f t="shared" si="2"/>
+      <c r="K6" s="4">
+        <f>'Windows (HyperV)'!F23</f>
+        <v>0.34230988884342828</v>
+      </c>
+      <c r="L6" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8640369902004926E-2</v>
+      </c>
+      <c r="M6" s="5">
+        <f t="shared" si="5"/>
         <v>1.048132477306019</v>
       </c>
-      <c r="K6" s="4">
+      <c r="N6" s="4">
         <f>'Windows (HyperV)'!H22</f>
         <v>57.597650000000002</v>
       </c>
-      <c r="L6" s="5">
-        <f>'Windows (HyperV)'!H24</f>
-        <v>1.2801907161554741E-2</v>
-      </c>
-      <c r="M6" s="5">
-        <f t="shared" si="3"/>
+      <c r="O6" s="4">
+        <f>'Windows (HyperV)'!H23</f>
+        <v>0.73735976802372349</v>
+      </c>
+      <c r="P6" s="5">
+        <f t="shared" si="6"/>
+        <v>1.3436345494072735E-2</v>
+      </c>
+      <c r="Q6" s="5">
+        <f t="shared" si="7"/>
         <v>1.0495581107183207</v>
       </c>
-      <c r="N6" s="4">
+      <c r="R6" s="4">
         <f>'Windows (HyperV)'!J22</f>
         <v>129.30324999999999</v>
       </c>
-      <c r="O6" s="5">
-        <f>'Windows (HyperV)'!J24</f>
-        <v>4.7980259160979111E-3</v>
-      </c>
-      <c r="P6" s="5">
-        <f t="shared" si="4"/>
+      <c r="S6" s="4">
+        <f>'Windows (HyperV)'!J23</f>
+        <v>0.62040034453568715</v>
+      </c>
+      <c r="T6" s="5">
+        <f t="shared" si="8"/>
+        <v>4.9670611694018884E-3</v>
+      </c>
+      <c r="U6" s="5">
+        <f t="shared" si="9"/>
         <v>1.0352301667935651</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -4137,64 +5405,84 @@
         <f>'Windows (HyperV - Process)'!B22</f>
         <v>3.5792999999999999</v>
       </c>
-      <c r="C7" s="5">
-        <f>'Windows (HyperV - Process)'!B24</f>
-        <v>2.2434762996823728E-2</v>
+      <c r="C7" s="4">
+        <f>'Windows (HyperV - Process)'!B23</f>
+        <v>8.0300747194531175E-2</v>
       </c>
       <c r="D7" s="5">
         <f t="shared" si="0"/>
+        <v>2.3211327251963749E-2</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
         <v>1.0346143284531226</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <f>'Windows (HyperV - Process)'!D22</f>
         <v>8.3085500000000003</v>
       </c>
-      <c r="F7" s="5">
-        <f>'Windows (HyperV - Process)'!D24</f>
-        <v>3.0521632710278343E-2</v>
-      </c>
-      <c r="G7" s="5">
-        <f t="shared" si="1"/>
+      <c r="G7" s="4">
+        <f>'Windows (HyperV - Process)'!D23</f>
+        <v>0.25359051145498313</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="2"/>
+        <v>3.1602229617604095E-2</v>
+      </c>
+      <c r="I7" s="5">
+        <f t="shared" si="3"/>
         <v>1.035404295621507</v>
       </c>
-      <c r="H7" s="4">
+      <c r="J7" s="4">
         <f>'Windows (HyperV - Process)'!F22</f>
         <v>18.9422</v>
       </c>
-      <c r="I7" s="5">
-        <f>'Windows (HyperV - Process)'!F24</f>
-        <v>1.7634536333042908E-2</v>
-      </c>
-      <c r="J7" s="5">
-        <f t="shared" si="2"/>
+      <c r="K7" s="4">
+        <f>'Windows (HyperV - Process)'!F23</f>
+        <v>0.33403691412776537</v>
+      </c>
+      <c r="L7" s="5">
+        <f t="shared" si="4"/>
+        <v>1.8189867845488452E-2</v>
+      </c>
+      <c r="M7" s="5">
+        <f t="shared" si="5"/>
         <v>1.0314911320580051</v>
       </c>
-      <c r="K7" s="4">
+      <c r="N7" s="4">
         <f>'Windows (HyperV - Process)'!H22</f>
         <v>56.245999999999995</v>
       </c>
-      <c r="L7" s="5">
-        <f>'Windows (HyperV - Process)'!H24</f>
-        <v>1.0333975481329204E-2</v>
-      </c>
-      <c r="M7" s="5">
-        <f t="shared" si="3"/>
+      <c r="O7" s="4">
+        <f>'Windows (HyperV - Process)'!H23</f>
+        <v>0.58124478492284237</v>
+      </c>
+      <c r="P7" s="5">
+        <f t="shared" si="6"/>
+        <v>1.0591581051110506E-2</v>
+      </c>
+      <c r="Q7" s="5">
+        <f t="shared" si="7"/>
         <v>1.0249280221582417</v>
       </c>
-      <c r="N7" s="4">
+      <c r="R7" s="4">
         <f>'Windows (HyperV - Process)'!J22</f>
         <v>126.57329999999999</v>
       </c>
-      <c r="O7" s="5">
-        <f>'Windows (HyperV - Process)'!J24</f>
-        <v>5.5526637438342999E-3</v>
-      </c>
-      <c r="P7" s="5">
-        <f t="shared" si="4"/>
+      <c r="S7" s="4">
+        <f>'Windows (HyperV - Process)'!J23</f>
+        <v>0.70281897384746195</v>
+      </c>
+      <c r="T7" s="5">
+        <f t="shared" si="8"/>
+        <v>5.6269227843986167E-3</v>
+      </c>
+      <c r="U7" s="5">
+        <f t="shared" si="9"/>
         <v>1.0133735886036273</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>15</v>
       </c>
@@ -4202,64 +5490,84 @@
         <f>'Linux (Natif)'!B22</f>
         <v>3.4523999999999999</v>
       </c>
-      <c r="C8" s="5">
-        <f>'Linux (Natif)'!B24</f>
+      <c r="C8" s="4">
+        <f>'Linux (Natif)'!B23</f>
+        <v>1.5818975946628157E-2</v>
+      </c>
+      <c r="D8" s="5">
+        <f>C8/$B$8</f>
         <v>4.5820229251037417E-3</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <f>B8/$B$8</f>
         <v>1</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <f>'Linux (Natif)'!D22</f>
         <v>7.9883000000000006</v>
       </c>
-      <c r="F8" s="5">
-        <f>'Linux (Natif)'!D24</f>
+      <c r="G8" s="4">
+        <f>'Linux (Natif)'!D23</f>
+        <v>0.13427401088818341</v>
+      </c>
+      <c r="H8" s="5">
+        <f>G8/$F$8</f>
         <v>1.6808834281159122E-2</v>
       </c>
-      <c r="G8" s="5">
-        <f>E8/$E$8</f>
+      <c r="I8" s="5">
+        <f>F8/$F$8</f>
         <v>1</v>
       </c>
-      <c r="H8" s="4">
+      <c r="J8" s="4">
         <f>'Linux (Natif)'!F22</f>
         <v>18.423200000000001</v>
       </c>
-      <c r="I8" s="5">
-        <f>'Linux (Natif)'!F24</f>
+      <c r="K8" s="4">
+        <f>'Linux (Natif)'!F23</f>
+        <v>0.1819204771321799</v>
+      </c>
+      <c r="L8" s="5">
+        <f>K8/$J$8</f>
         <v>9.8745319560217485E-3</v>
       </c>
-      <c r="J8" s="5">
-        <f>H8/$H$8</f>
+      <c r="M8" s="5">
+        <f>J8/$J$8</f>
         <v>1</v>
       </c>
-      <c r="K8" s="4">
+      <c r="N8" s="4">
         <f>'Linux (Natif)'!H22</f>
         <v>54.982600000000005</v>
       </c>
-      <c r="L8" s="5">
-        <f>'Linux (Natif)'!H24</f>
+      <c r="O8" s="4">
+        <f>'Linux (Natif)'!H23</f>
+        <v>9.5250406823277733E-2</v>
+      </c>
+      <c r="P8" s="5">
+        <f>O8/$N$8</f>
         <v>1.7323736386289066E-3</v>
       </c>
-      <c r="M8" s="5">
-        <f>K8/$K$8</f>
+      <c r="Q8" s="5">
+        <f>N8/$N$8</f>
         <v>1</v>
       </c>
-      <c r="N8" s="4">
+      <c r="R8" s="4">
         <f>'Linux (Natif)'!J22</f>
         <v>123.13549999999995</v>
       </c>
-      <c r="O8" s="5">
-        <f>'Linux (Natif)'!J24</f>
+      <c r="S8" s="4">
+        <f>'Linux (Natif)'!J23</f>
+        <v>0.81044854864451354</v>
+      </c>
+      <c r="T8" s="5">
+        <f>S8/$R$8</f>
         <v>6.5817619504084024E-3</v>
       </c>
-      <c r="P8" s="5">
-        <f>N8/$N$8</f>
+      <c r="U8" s="5">
+        <f>R8/$R$8</f>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -4267,62 +5575,85 @@
         <f>'Linux (Docker)'!B22</f>
         <v>4.3357000000000001</v>
       </c>
-      <c r="C9" s="5">
-        <f>'Linux (Docker)'!B24</f>
-        <v>1.2482489309164404E-2</v>
+      <c r="C9" s="4">
+        <f>'Linux (Docker)'!B23</f>
+        <v>5.4120328897744104E-2</v>
       </c>
       <c r="D9" s="5">
+        <f>C9/$B$8</f>
+        <v>1.5676146708881969E-2</v>
+      </c>
+      <c r="E9" s="5">
         <f>B9/$B$8</f>
         <v>1.2558510022013671</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <f>'Linux (Docker)'!D22</f>
         <v>9.1102999999999987</v>
       </c>
-      <c r="F9" s="5">
-        <f>'Linux (Docker)'!D24</f>
-        <v>1.2312144535262476E-2</v>
-      </c>
-      <c r="G9" s="5">
-        <f>E9/$E$8</f>
+      <c r="G9" s="4">
+        <f>'Linux (Docker)'!D23</f>
+        <v>0.11216733035960172</v>
+      </c>
+      <c r="H9" s="5">
+        <f>G9/$F$8</f>
+        <v>1.4041451918380845E-2</v>
+      </c>
+      <c r="I9" s="5">
+        <f>F9/$F$8</f>
         <v>1.140455416045967</v>
       </c>
-      <c r="H9" s="4">
+      <c r="J9" s="4">
         <f>'Linux (Docker)'!F22</f>
         <v>19.794800000000002</v>
       </c>
-      <c r="I9" s="5">
-        <f>'Linux (Docker)'!F24</f>
-        <v>5.8042579453281284E-3</v>
-      </c>
-      <c r="J9" s="5">
-        <f>H9/$H$8</f>
+      <c r="K9" s="4">
+        <f>'Linux (Docker)'!F23</f>
+        <v>0.11489412517618125</v>
+      </c>
+      <c r="L9" s="5">
+        <f>K9/$J$8</f>
+        <v>6.2363826683844957E-3</v>
+      </c>
+      <c r="M9" s="5">
+        <f>J9/$J$8</f>
         <v>1.0744496070172391</v>
       </c>
-      <c r="K9" s="4">
+      <c r="N9" s="4">
         <f>'Linux (Docker)'!H22</f>
         <v>57.930199999999999</v>
       </c>
-      <c r="L9" s="5">
-        <f>'Linux (Docker)'!H24</f>
-        <v>3.8764455332092828E-3</v>
-      </c>
-      <c r="M9" s="5">
-        <f>K9/$K$8</f>
+      <c r="O9" s="4">
+        <f>'Linux (Docker)'!H23</f>
+        <v>0.2245632650279204</v>
+      </c>
+      <c r="P9" s="5">
+        <f>O9/$N$8</f>
+        <v>4.084260566577797E-3</v>
+      </c>
+      <c r="Q9" s="5">
+        <f>N9/$N$8</f>
         <v>1.0536096874283862</v>
       </c>
-      <c r="N9" s="4">
+      <c r="R9" s="4">
         <f>'Linux (Docker)'!J22</f>
         <v>129.78820000000002</v>
       </c>
-      <c r="O9" s="5">
-        <f>'Linux (Docker)'!J24</f>
-        <v>3.5862204342227122E-3</v>
-      </c>
-      <c r="P9" s="5">
-        <f>N9/$N$8</f>
+      <c r="S9" s="4">
+        <f>'Linux (Docker)'!J23</f>
+        <v>0.4654490949609843</v>
+      </c>
+      <c r="T9" s="5">
+        <f>S9/$R$8</f>
+        <v>3.7799748647707973E-3</v>
+      </c>
+      <c r="U9" s="5">
+        <f>R9/$R$8</f>
         <v>1.0540274737991893</v>
       </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="C10" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4340,286 +5671,286 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.42578125" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
     <col min="3" max="3" width="28.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="16"/>
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="16"/>
+      <c r="B3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="11" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8"/>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="16"/>
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="11" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="11" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8"/>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="16"/>
+      <c r="B6" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="16"/>
+      <c r="B7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8"/>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="16"/>
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="8"/>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="16"/>
+      <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="12" t="s">
+      <c r="C9" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="8"/>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="16"/>
+      <c r="B10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="8"/>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="16"/>
+      <c r="B11" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="11">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="8"/>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="16"/>
+      <c r="B12" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8"/>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="16"/>
+      <c r="B13" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="8"/>
-      <c r="B14" s="13" t="s">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="13" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+      <c r="A15" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="8"/>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="16"/>
+      <c r="B16" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="16"/>
+      <c r="B17" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="8"/>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="16"/>
+      <c r="B18" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="8"/>
-      <c r="B19" s="15" t="s">
+      <c r="A19" s="16"/>
+      <c r="B19" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="8"/>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="16"/>
+      <c r="B20" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="11">
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="8"/>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="16"/>
+      <c r="B21" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="8"/>
-      <c r="B22" s="13" t="s">
+      <c r="A22" s="16"/>
+      <c r="B22" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="C22" s="14" t="s">
+      <c r="C22" s="13" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+      <c r="A23" s="16" t="s">
         <v>57</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="8"/>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="16"/>
+      <c r="B24" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="8"/>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="16"/>
+      <c r="B25" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="8"/>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="16"/>
+      <c r="B26" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="8"/>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="16"/>
+      <c r="B27" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="8"/>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="8"/>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="16"/>
+      <c r="B29" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="8"/>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="16"/>
+      <c r="B30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>69</v>
       </c>
     </row>
@@ -5184,7 +6515,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{20B7F846-7F64-4B56-961E-CAD800D5D68C}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4DED03BD-445C-47D1-AC07-6C3CFDED0B25}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5195,8 +6526,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (Natif)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Windows (Natif)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E8CC52C8-E3E7-4876-9E87-B8E76047DCCD}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (Natif)'!D2:D22</xm:f>
+              <xm:sqref>D25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{32B0DB58-2614-4422-8C24-9CAE80CB6E07}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (Natif)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5216,7 +6579,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{32B0DB58-2614-4422-8C24-9CAE80CB6E07}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{20B7F846-7F64-4B56-961E-CAD800D5D68C}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5227,40 +6590,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (Natif)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E8CC52C8-E3E7-4876-9E87-B8E76047DCCD}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (Natif)'!D2:D22</xm:f>
-              <xm:sqref>D25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4DED03BD-445C-47D1-AC07-6C3CFDED0B25}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (Natif)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Windows (Natif)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5819,7 +7150,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{582C4AA5-253C-4602-9CA4-A22FB1543E78}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4C8F0E14-8C7D-48A2-BB07-116CD741DB7C}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5830,8 +7161,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (WSL2)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Windows (WSL2)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{0C55EBE5-6764-4208-B8BC-789E1E5B4B5E}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (WSL2)'!H2:H21</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{814BB91E-C43C-44C1-A311-68934D85354F}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (WSL2)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -5851,7 +7214,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{814BB91E-C43C-44C1-A311-68934D85354F}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{582C4AA5-253C-4602-9CA4-A22FB1543E78}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -5862,40 +7225,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (WSL2)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{0C55EBE5-6764-4208-B8BC-789E1E5B4B5E}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (WSL2)'!H2:H21</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{4C8F0E14-8C7D-48A2-BB07-116CD741DB7C}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (WSL2)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Windows (WSL2)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6454,7 +7785,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E2DBE3EC-CADC-4A3C-9A35-31DD1364CF4F}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B876EF59-A0DF-4126-BEA1-BD440EE76287}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6465,8 +7796,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (WSL2 - Process)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Windows (WSL2 - Process)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E017E694-9795-4111-BE86-2647A8577DE7}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (WSL2 - Process)'!H2:H21</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F4609CA2-CE72-4E1D-A568-04F1098E4198}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (WSL2 - Process)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -6486,7 +7849,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F4609CA2-CE72-4E1D-A568-04F1098E4198}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E2DBE3EC-CADC-4A3C-9A35-31DD1364CF4F}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -6497,40 +7860,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (WSL2 - Process)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{E017E694-9795-4111-BE86-2647A8577DE7}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (WSL2 - Process)'!H2:H21</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B876EF59-A0DF-4126-BEA1-BD440EE76287}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (WSL2 - Process)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Windows (WSL2 - Process)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7089,7 +8420,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{7E1AABAC-2D45-4D06-A4DB-E7843ADD8981}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{319950A8-581E-407F-AE88-9BE3C1920C5C}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7100,8 +8431,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (HyperV)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Windows (HyperV)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5237568A-E2FE-44C5-9300-82DEBF5285A4}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (HyperV)'!H2:H21</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{902714B3-6FA6-426E-AEC0-5FCFE42E7742}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (HyperV)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7121,7 +8484,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{902714B3-6FA6-426E-AEC0-5FCFE42E7742}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{7E1AABAC-2D45-4D06-A4DB-E7843ADD8981}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7132,40 +8495,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (HyperV)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5237568A-E2FE-44C5-9300-82DEBF5285A4}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (HyperV)'!H2:H21</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{319950A8-581E-407F-AE88-9BE3C1920C5C}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (HyperV)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Windows (HyperV)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7724,7 +9055,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{07DA11F0-F126-4613-9B68-DA47310C9976}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5CF3F07B-04DA-41E3-B812-2EEF9192E4DE}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7735,8 +9066,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (HyperV - Process)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Windows (HyperV - Process)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F13F9315-C756-4454-A283-FCA3FA28216F}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (HyperV - Process)'!H2:H21</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3F67318B-A9B5-4351-B4A2-F49D67F8FF96}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Windows (HyperV - Process)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -7756,7 +9119,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{3F67318B-A9B5-4351-B4A2-F49D67F8FF96}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{07DA11F0-F126-4613-9B68-DA47310C9976}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -7767,40 +9130,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Windows (HyperV - Process)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{F13F9315-C756-4454-A283-FCA3FA28216F}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (HyperV - Process)'!H2:H21</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5CF3F07B-04DA-41E3-B812-2EEF9192E4DE}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Windows (HyperV - Process)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Windows (HyperV - Process)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8359,7 +9690,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C6B5756F-7E88-4F21-A809-A3F2A0113B12}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1F18C7B7-95AB-4D90-A710-49E9CCAA348C}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8370,8 +9701,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Linux (Natif)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Linux (Natif)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5BA95366-196F-46BC-B0F2-7FBB010A3FA0}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Linux (Natif)'!H2:H21</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B6D54A5E-7D91-482D-B84C-D588CD5DEEA5}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Linux (Natif)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8391,7 +9754,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{B6D54A5E-7D91-482D-B84C-D588CD5DEEA5}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{C6B5756F-7E88-4F21-A809-A3F2A0113B12}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -8402,40 +9765,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Linux (Natif)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{5BA95366-196F-46BC-B0F2-7FBB010A3FA0}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Linux (Natif)'!H2:H21</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{1F18C7B7-95AB-4D90-A710-49E9CCAA348C}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Linux (Natif)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Linux (Natif)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -8994,7 +10325,7 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{05C60535-1F16-4fd2-B633-F4F36F0B64E0}">
       <x14:sparklineGroups xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{321C9D7C-B5EA-4172-824A-65DCFC2701CE}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{EDD66DC9-BB65-406E-BD43-8654334956CC}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -9005,8 +10336,40 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Linux (Docker)'!B2:B21</xm:f>
-              <xm:sqref>B25</xm:sqref>
+              <xm:f>'Linux (Docker)'!J2:J21</xm:f>
+              <xm:sqref>J25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{6D34DA49-96D9-41FD-A41D-877496F607E4}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Linux (Docker)'!H2:H21</xm:f>
+              <xm:sqref>H25</xm:sqref>
+            </x14:sparkline>
+          </x14:sparklines>
+        </x14:sparklineGroup>
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{73E56E4E-3E94-44A9-8956-90CE01E06B65}">
+          <x14:colorSeries rgb="FF376092"/>
+          <x14:colorNegative rgb="FFD00000"/>
+          <x14:colorAxis rgb="FF000000"/>
+          <x14:colorMarkers rgb="FFD00000"/>
+          <x14:colorFirst rgb="FFD00000"/>
+          <x14:colorLast rgb="FFD00000"/>
+          <x14:colorHigh rgb="FFD00000"/>
+          <x14:colorLow rgb="FFD00000"/>
+          <x14:sparklines>
+            <x14:sparkline>
+              <xm:f>'Linux (Docker)'!F2:F21</xm:f>
+              <xm:sqref>F25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
@@ -9026,7 +10389,7 @@
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{73E56E4E-3E94-44A9-8956-90CE01E06B65}">
+        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{321C9D7C-B5EA-4172-824A-65DCFC2701CE}">
           <x14:colorSeries rgb="FF376092"/>
           <x14:colorNegative rgb="FFD00000"/>
           <x14:colorAxis rgb="FF000000"/>
@@ -9037,40 +10400,8 @@
           <x14:colorLow rgb="FFD00000"/>
           <x14:sparklines>
             <x14:sparkline>
-              <xm:f>'Linux (Docker)'!F2:F21</xm:f>
-              <xm:sqref>F25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{6D34DA49-96D9-41FD-A41D-877496F607E4}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Linux (Docker)'!H2:H21</xm:f>
-              <xm:sqref>H25</xm:sqref>
-            </x14:sparkline>
-          </x14:sparklines>
-        </x14:sparklineGroup>
-        <x14:sparklineGroup displayEmptyCellsAs="gap" xr2:uid="{EDD66DC9-BB65-406E-BD43-8654334956CC}">
-          <x14:colorSeries rgb="FF376092"/>
-          <x14:colorNegative rgb="FFD00000"/>
-          <x14:colorAxis rgb="FF000000"/>
-          <x14:colorMarkers rgb="FFD00000"/>
-          <x14:colorFirst rgb="FFD00000"/>
-          <x14:colorLast rgb="FFD00000"/>
-          <x14:colorHigh rgb="FFD00000"/>
-          <x14:colorLow rgb="FFD00000"/>
-          <x14:sparklines>
-            <x14:sparkline>
-              <xm:f>'Linux (Docker)'!J2:J21</xm:f>
-              <xm:sqref>J25</xm:sqref>
+              <xm:f>'Linux (Docker)'!B2:B21</xm:f>
+              <xm:sqref>B25</xm:sqref>
             </x14:sparkline>
           </x14:sparklines>
         </x14:sparklineGroup>
